--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21360" windowHeight="8280"/>
+    <workbookView windowWidth="17370" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -41,6 +41,9 @@
     <t>DESCRIBE</t>
   </si>
   <si>
+    <t>prefabName</t>
+  </si>
+  <si>
     <t>maxStackCount</t>
   </si>
   <si>
@@ -74,6 +77,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>预制体名称</t>
+  </si>
+  <si>
     <t>最大数量，这类物品在达到最大数量后无法再捡起同类物品，统一提示该物品持有量已达上限</t>
   </si>
   <si>
@@ -83,16 +89,31 @@
     <t>无名指钥匙</t>
   </si>
   <si>
+    <t>RingFinger</t>
+  </si>
+  <si>
     <t>小指钥匙</t>
   </si>
   <si>
+    <t>LittleFinger</t>
+  </si>
+  <si>
     <t>拇指钥匙</t>
   </si>
   <si>
+    <t>Thumb</t>
+  </si>
+  <si>
     <t>手枪弹</t>
   </si>
   <si>
+    <t>Bullet</t>
+  </si>
+  <si>
     <t>霰弹</t>
+  </si>
+  <si>
+    <t>Shrapnel</t>
   </si>
 </sst>
 </file>
@@ -715,17 +736,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,187 +1072,215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.8166666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.8916666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="27" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" ht="27" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" ht="67" customHeight="1" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" ht="67" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:7">
       <c r="B5" s="1">
         <v>240001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="6">
         <v>999</v>
       </c>
-      <c r="F5" s="1">
-        <v>1001</v>
+      <c r="G5" s="1">
+        <v>900001</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:7">
       <c r="B6" s="1">
         <v>240002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="6">
         <v>999</v>
       </c>
-      <c r="F6" s="1">
-        <v>1001</v>
+      <c r="G6" s="1">
+        <v>900001</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>240003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6">
         <v>999</v>
       </c>
-      <c r="F7" s="1">
-        <v>1001</v>
+      <c r="G7" s="1">
+        <v>900001</v>
       </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:7">
       <c r="B8" s="1">
         <v>240004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="6">
         <v>999</v>
       </c>
-      <c r="F8" s="1">
-        <v>1001</v>
+      <c r="G8" s="1">
+        <v>900001</v>
       </c>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:7">
       <c r="B9" s="1">
         <v>240005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="6">
         <v>999</v>
       </c>
-      <c r="F9" s="1">
-        <v>1001</v>
+      <c r="G9" s="1">
+        <v>900001</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="5"/>
+    <row r="10" spans="6:6">
+      <c r="F10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D117B6-8C74-407E-9644-2BAD6B490A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611686C-179F-49D4-8114-374002BFFD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="885" windowWidth="23685" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="1305" windowWidth="17895" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>DESCRIBE</t>
   </si>
   <si>
-    <t>prefabName</t>
-  </si>
-  <si>
     <t>maxStackCount</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>描述</t>
   </si>
   <si>
-    <t>预制体名称</t>
-  </si>
-  <si>
     <t>最大数量，这类物品在达到最大数量后无法再捡起同类物品，统一提示该物品持有量已达上限</t>
   </si>
   <si>
@@ -97,21 +91,6 @@
     <t>IconName</t>
   </si>
   <si>
-    <t>Tiny_RingFinger</t>
-  </si>
-  <si>
-    <t>Tiny_LittleFinger</t>
-  </si>
-  <si>
-    <t>Tiny_Thumb</t>
-  </si>
-  <si>
-    <t>Tiny_Bullet</t>
-  </si>
-  <si>
-    <t>Tiny_Shrapnel</t>
-  </si>
-  <si>
     <t>Icon_Tiny_RingFinger</t>
   </si>
   <si>
@@ -125,6 +104,24 @@
   </si>
   <si>
     <t>Icon_Tiny_Shrapnel</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_RingFinger</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_LittleFinger</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_Thumb</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_Bullet</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_Shrapnel</t>
   </si>
 </sst>
 </file>
@@ -169,7 +166,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -183,9 +180,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -473,13 +467,12 @@
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -492,214 +485,211 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="66.95" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="66.95" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="1">
         <v>240001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
         <v>999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="F5" s="1">
         <v>900001</v>
       </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
       <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="1">
         <v>240002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="5">
         <v>999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="F6" s="1">
         <v>900001</v>
       </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1">
         <v>240003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="E7" s="5">
         <v>999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="F7" s="1">
         <v>900001</v>
       </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1">
         <v>240004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="E8" s="5">
         <v>999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="F8" s="1">
         <v>900001</v>
       </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="1">
         <v>240005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="5">
         <v>999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="F9" s="1">
         <v>900001</v>
       </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
       <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="F10" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7611686C-179F-49D4-8114-374002BFFD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4015D-413C-425A-968E-8FDE92A361BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="1305" windowWidth="17895" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>Sprite_Tiny_Shrapnel</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
+    <t>P_Item_TinyObject</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -470,6 +476,8 @@
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30">
@@ -497,6 +505,9 @@
       <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
@@ -523,6 +534,9 @@
       <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
@@ -547,6 +561,9 @@
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="66.95" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -568,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="45">
       <c r="B5" s="1">
         <v>240001</v>
       </c>
@@ -590,9 +607,11 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
       <c r="B6" s="1">
         <v>240002</v>
       </c>
@@ -614,9 +633,11 @@
       <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
       <c r="B7" s="1">
         <v>240003</v>
       </c>
@@ -638,9 +659,11 @@
       <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
       <c r="B8" s="1">
         <v>240004</v>
       </c>
@@ -662,9 +685,11 @@
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
       <c r="B9" s="1">
         <v>240005</v>
       </c>
@@ -686,7 +711,9 @@
       <c r="H9" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="E10" s="6"/>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game Project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4015D-413C-425A-968E-8FDE92A361BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,6 +47,15 @@
     <t>interactEffectID</t>
   </si>
   <si>
+    <t>IconName</t>
+  </si>
+  <si>
+    <t>SpriteName</t>
+  </si>
+  <si>
+    <t>PrefabName</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -76,89 +92,416 @@
     <t>无名指钥匙</t>
   </si>
   <si>
+    <t>Icon_Tiny_RingFinger</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_RingFinger</t>
+  </si>
+  <si>
+    <t>P_Item_TinyObject</t>
+  </si>
+  <si>
     <t>小指钥匙</t>
   </si>
   <si>
+    <t>Icon_Tiny_LittleFinger</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_LittleFinger</t>
+  </si>
+  <si>
     <t>拇指钥匙</t>
   </si>
   <si>
+    <t>Icon_Tiny_Thumb</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_Thumb</t>
+  </si>
+  <si>
     <t>手枪弹</t>
   </si>
   <si>
+    <t>Icon_Tiny_Bullet</t>
+  </si>
+  <si>
+    <t>Sprite_Tiny_Bullet</t>
+  </si>
+  <si>
     <t>霰弹</t>
   </si>
   <si>
-    <t>IconName</t>
-  </si>
-  <si>
-    <t>Icon_Tiny_RingFinger</t>
-  </si>
-  <si>
-    <t>Icon_Tiny_LittleFinger</t>
-  </si>
-  <si>
-    <t>Icon_Tiny_Thumb</t>
-  </si>
-  <si>
-    <t>Icon_Tiny_Bullet</t>
-  </si>
-  <si>
     <t>Icon_Tiny_Shrapnel</t>
   </si>
   <si>
-    <t>SpriteName</t>
-  </si>
-  <si>
-    <t>Sprite_Tiny_RingFinger</t>
-  </si>
-  <si>
-    <t>Sprite_Tiny_LittleFinger</t>
-  </si>
-  <si>
-    <t>Sprite_Tiny_Thumb</t>
-  </si>
-  <si>
-    <t>Sprite_Tiny_Bullet</t>
-  </si>
-  <si>
     <t>Sprite_Tiny_Shrapnel</t>
-  </si>
-  <si>
-    <t>PrefabName</t>
-  </si>
-  <si>
-    <t>P_Item_TinyObject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -166,9 +509,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -179,33 +764,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -455,271 +1084,272 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.56666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.425" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.14166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8583333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7083333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7083333333333" customWidth="1"/>
+    <col min="8" max="8" width="20.1416666666667" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="27" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>34</v>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
+    <row r="2" ht="27" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
+    <row r="3" ht="27" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="66.95" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    <row r="4" ht="66.95" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45">
+    <row r="5" spans="2:9">
       <c r="B5" s="1">
         <v>240001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>999</v>
       </c>
       <c r="F5" s="1">
         <v>900001</v>
       </c>
       <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>240002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>999</v>
       </c>
       <c r="F6" s="1">
         <v>900001</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>240003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>999</v>
       </c>
       <c r="F7" s="1">
         <v>900001</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>240004</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>999</v>
       </c>
       <c r="F8" s="1">
         <v>900001</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>35</v>
+      <c r="I8" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30">
+    <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>240005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>999</v>
       </c>
       <c r="F9" s="1">
         <v>900001</v>
       </c>
       <c r="G9" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="I9" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="6"/>
+    <row r="10" spans="5:5">
+      <c r="E10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="25590" windowHeight="11200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -89,9 +89,6 @@
     <t>玩家与其的交互是哪一种</t>
   </si>
   <si>
-    <t>无名指钥匙</t>
-  </si>
-  <si>
     <t>Icon_Tiny_RingFinger</t>
   </si>
   <si>
@@ -101,34 +98,22 @@
     <t>P_Item_TinyObject</t>
   </si>
   <si>
-    <t>小指钥匙</t>
-  </si>
-  <si>
     <t>Icon_Tiny_LittleFinger</t>
   </si>
   <si>
     <t>Sprite_Tiny_LittleFinger</t>
   </si>
   <si>
-    <t>拇指钥匙</t>
-  </si>
-  <si>
     <t>Icon_Tiny_Thumb</t>
   </si>
   <si>
     <t>Sprite_Tiny_Thumb</t>
   </si>
   <si>
-    <t>手枪弹</t>
-  </si>
-  <si>
     <t>Icon_Tiny_Bullet</t>
   </si>
   <si>
     <t>Sprite_Tiny_Bullet</t>
-  </si>
-  <si>
-    <t>霰弹</t>
   </si>
   <si>
     <t>Icon_Tiny_Shrapnel</t>
@@ -770,14 +755,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1093,23 +1078,23 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.56666666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.56363636363636" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.425" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.14166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8583333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7083333333333" customWidth="1"/>
-    <col min="8" max="8" width="20.1416666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.4272727272727" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.14545454545454" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7090909090909" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7090909090909" customWidth="1"/>
+    <col min="8" max="8" width="20.1454545454545" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" ht="28" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:9">
+    <row r="2" ht="28" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1146,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1167,23 +1152,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:9">
+    <row r="3" ht="28" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1218,134 +1197,134 @@
       <c r="B5" s="1">
         <v>240001</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
+      <c r="C5" s="4">
+        <v>706001</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>999</v>
       </c>
       <c r="F5" s="1">
         <v>900001</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="1">
         <v>240002</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
+      <c r="C6" s="4">
+        <v>706002</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>999</v>
       </c>
       <c r="F6" s="1">
         <v>900001</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="1">
         <v>240003</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
+      <c r="C7" s="4">
+        <v>706003</v>
       </c>
       <c r="D7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>999</v>
       </c>
       <c r="F7" s="1">
         <v>900001</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="1">
         <v>240004</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
+      <c r="C8" s="4">
+        <v>706004</v>
       </c>
       <c r="D8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>999</v>
       </c>
       <c r="F8" s="1">
         <v>900001</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="1">
         <v>240005</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
+      <c r="C9" s="4">
+        <v>706005</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>999</v>
       </c>
       <c r="F9" s="1">
         <v>900001</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="5"/>
+      <c r="E10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="11200"/>
+    <workbookView windowWidth="28185" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -89,6 +89,9 @@
     <t>玩家与其的交互是哪一种</t>
   </si>
   <si>
+    <t>无名指</t>
+  </si>
+  <si>
     <t>Icon_Tiny_RingFinger</t>
   </si>
   <si>
@@ -98,22 +101,34 @@
     <t>P_Item_TinyObject</t>
   </si>
   <si>
+    <t>小指</t>
+  </si>
+  <si>
     <t>Icon_Tiny_LittleFinger</t>
   </si>
   <si>
     <t>Sprite_Tiny_LittleFinger</t>
   </si>
   <si>
+    <t>拇指</t>
+  </si>
+  <si>
     <t>Icon_Tiny_Thumb</t>
   </si>
   <si>
     <t>Sprite_Tiny_Thumb</t>
   </si>
   <si>
+    <t>手枪弹</t>
+  </si>
+  <si>
     <t>Icon_Tiny_Bullet</t>
   </si>
   <si>
     <t>Sprite_Tiny_Bullet</t>
+  </si>
+  <si>
+    <t>霰弹</t>
   </si>
   <si>
     <t>Icon_Tiny_Shrapnel</t>
@@ -1075,26 +1090,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.56363636363636" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.56666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.4272727272727" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.14545454545454" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8545454545455" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7090909090909" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.7090909090909" customWidth="1"/>
-    <col min="8" max="8" width="20.1454545454545" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.425" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.55" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.14166666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.8583333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7083333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7083333333333" customWidth="1"/>
+    <col min="9" max="9" width="20.1416666666667" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:9">
+    <row r="1" ht="27" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1104,26 +1120,27 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:9">
+    <row r="2" ht="27" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1133,17 +1150,15 @@
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
@@ -1151,29 +1166,33 @@
       <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="28" spans="1:9">
+    <row r="3" ht="27" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" ht="66.95" customHeight="1" spans="1:6">
+    <row r="4" ht="66.95" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1183,148 +1202,164 @@
       <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:10">
       <c r="B5" s="1">
         <v>240001</v>
       </c>
       <c r="C5" s="4">
         <v>706001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>999</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>900001</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" t="s">
         <v>22</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:10">
       <c r="B6" s="1">
         <v>240002</v>
       </c>
       <c r="C6" s="4">
         <v>706002</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>999</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>900001</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" spans="2:9">
+    <row r="7" spans="2:10">
       <c r="B7" s="1">
         <v>240003</v>
       </c>
       <c r="C7" s="4">
         <v>706003</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5">
         <v>999</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>900001</v>
       </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:10">
       <c r="B8" s="1">
         <v>240004</v>
       </c>
       <c r="C8" s="4">
         <v>706004</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>999</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>900001</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
       <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
+    <row r="9" spans="2:10">
       <c r="B9" s="1">
         <v>240005</v>
       </c>
       <c r="C9" s="4">
         <v>706005</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5">
         <v>999</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>900001</v>
       </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
       <c r="H9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="6"/>
+    <row r="10" spans="6:6">
+      <c r="F10" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28185" windowHeight="6270"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -1092,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1174,14 +1174,22 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="16455" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1093,7 +1093,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
+++ b/AAA-Luban-Excel/Datas/item_TinyObjects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16455" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -307,12 +307,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -633,7 +639,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,16 +663,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -675,90 +681,93 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -768,6 +777,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1093,180 +1111,181 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="6.56666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.425" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.14166666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7083333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.56666666666667" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.425" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.55" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.14166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.8583333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.7083333333333" style="2" customWidth="1"/>
     <col min="8" max="8" width="21.7083333333333" customWidth="1"/>
     <col min="9" max="9" width="20.1416666666667" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:10">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" ht="66.95" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1">
+    <row r="5" s="1" customFormat="1" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5">
         <v>240001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>706001</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>999</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="5">
         <v>900001</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>240002</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="8">
         <v>706002</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="9">
         <v>999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>900001</v>
       </c>
       <c r="H6" t="s">
@@ -1275,27 +1294,27 @@
       <c r="I6" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>240003</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="8">
         <v>706003</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="9">
         <v>999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>900001</v>
       </c>
       <c r="H7" t="s">
@@ -1304,56 +1323,57 @@
       <c r="I7" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="1">
+    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5">
         <v>240004</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>706004</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="7">
         <v>999</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>900001</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>240005</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="8">
         <v>706005</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="9">
         <v>999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>900001</v>
       </c>
       <c r="H9" t="s">
@@ -1362,12 +1382,12 @@
       <c r="I9" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="6:6">
-      <c r="F10" s="6"/>
+      <c r="F10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
